--- a/spc/results/t01/M_0.30_k_0.05/iht_CLEAN/iht_residuals_run_1.xlsx
+++ b/spc/results/t01/M_0.30_k_0.05/iht_CLEAN/iht_residuals_run_1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A220"/>
+  <dimension ref="A1:A71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -790,751 +790,6 @@
         <v>147.8165336796039</v>
       </c>
     </row>
-    <row r="72">
-      <c r="A72" t="n">
-        <v>146.9763087834858</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="n">
-        <v>146.2704467674884</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="n">
-        <v>145.2419766458108</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="n">
-        <v>144.3860887592108</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="n">
-        <v>143.4465981287717</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="n">
-        <v>142.6646284486828</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="n">
-        <v>141.7907266756861</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="n">
-        <v>140.6774596112436</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="n">
-        <v>139.5468003051789</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="n">
-        <v>138.41401995887</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="n">
-        <v>137.4807379870514</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="n">
-        <v>136.7068827217211</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="n">
-        <v>136.0590453860321</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="n">
-        <v>135.3091086802071</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="n">
-        <v>134.4899999375181</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="n">
-        <v>133.8097596281508</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="n">
-        <v>133.039202201984</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="n">
-        <v>132.3960584738085</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="n">
-        <v>131.6578634192908</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="n">
-        <v>131.0495770172368</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="n">
-        <v>130.3333748985244</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="n">
-        <v>129.7559122904931</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="n">
-        <v>129.2752846343347</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="n">
-        <v>128.8711942155503</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="n">
-        <v>128.3317102272076</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="n">
-        <v>127.7035337655929</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="n">
-        <v>127.1830550331318</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="n">
-        <v>126.5690188801524</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="n">
-        <v>126.069114075923</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="n">
-        <v>125.4791967799778</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="n">
-        <v>124.9905686383999</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="n">
-        <v>124.5824990154017</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="n">
-        <v>124.2386470203875</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="n">
-        <v>123.7707111177701</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="n">
-        <v>123.1981379238174</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="n">
-        <v>122.7304868807035</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="n">
-        <v>122.3446497883825</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="n">
-        <v>122.0218956138992</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="n">
-        <v>121.4022744264444</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="n">
-        <v>120.8827143437214</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="n">
-        <v>120.4502477350049</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="n">
-        <v>120.0864456796729</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="n">
-        <v>119.7775790030996</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="n">
-        <v>119.3380036994421</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="n">
-        <v>118.7880024733931</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="n">
-        <v>118.3302149769208</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" t="n">
-        <v>117.9485714252495</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" t="n">
-        <v>117.6270445222909</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" t="n">
-        <v>117.3536617941277</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="n">
-        <v>117.1193483305561</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" t="n">
-        <v>116.7407940309772</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" t="n">
-        <v>116.4145634144071</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" t="n">
-        <v>116.1404857068697</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" t="n">
-        <v>115.5703206164349</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" t="n">
-        <v>115.1068051906243</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" t="n">
-        <v>114.7307340814831</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" t="n">
-        <v>114.4218540743006</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" t="n">
-        <v>114.1653952133215</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" t="n">
-        <v>113.9504206793126</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" t="n">
-        <v>113.5926910785787</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" t="n">
-        <v>113.3036461171067</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" t="n">
-        <v>113.0676862206451</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" t="n">
-        <v>112.6998631791817</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" t="n">
-        <v>112.3963272975646</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" t="n">
-        <v>112.145779282295</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" t="n">
-        <v>111.9371611359626</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" t="n">
-        <v>111.7621067725559</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" t="n">
-        <v>111.4305016408771</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" t="n">
-        <v>111.1627060893161</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" t="n">
-        <v>110.7579061747815</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" t="n">
-        <v>110.4248449353625</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" t="n">
-        <v>110.1507814146821</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" t="n">
-        <v>109.9229274110375</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" t="n">
-        <v>109.7317876045067</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" t="n">
-        <v>109.570196389046</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" t="n">
-        <v>109.4326618295421</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" t="n">
-        <v>109.3149131999827</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" t="n">
-        <v>109.2135846895459</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" t="n">
-        <v>109.125991145556</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" t="n">
-        <v>109.0499667527196</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" t="n">
-        <v>108.9837472910366</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" t="n">
-        <v>108.9258829672501</v>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" t="n">
-        <v>108.8751729867387</v>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" t="n">
-        <v>108.8306157960224</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" t="n">
-        <v>108.7913707736337</v>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" t="n">
-        <v>108.7567283951831</v>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" t="n">
-        <v>108.5762015264333</v>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" t="n">
-        <v>108.4290102322685</v>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" t="n">
-        <v>108.3113627285632</v>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" t="n">
-        <v>108.2161068469386</v>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" t="n">
-        <v>108.1380727940857</v>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" t="n">
-        <v>108.0734728347783</v>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" t="n">
-        <v>108.0194932974667</v>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" t="n">
-        <v>107.9740150443247</v>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" t="n">
-        <v>107.9354202249775</v>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" t="n">
-        <v>107.9024573646182</v>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" t="n">
-        <v>107.8741461862689</v>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" t="n">
-        <v>107.8497097221019</v>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" t="n">
-        <v>107.828525334992</v>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" t="n">
-        <v>107.8100889695677</v>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" t="n">
-        <v>107.7939887516999</v>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" t="n">
-        <v>107.7798852629293</v>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" t="n">
-        <v>107.7674966319546</v>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" t="n">
-        <v>107.7565871401666</v>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" t="n">
-        <v>107.7469584185898</v>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" t="n">
-        <v>107.7384425764875</v>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" t="n">
-        <v>107.7308967851436</v>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" t="n">
-        <v>107.7241989692116</v>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" t="n">
-        <v>107.7182443494829</v>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" t="n">
-        <v>107.7129426464467</v>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" t="n">
-        <v>107.7082158013812</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" t="n">
-        <v>107.703996106292</v>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" t="n">
-        <v>107.7002246594801</v>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" t="n">
-        <v>107.6968500824615</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" t="n">
-        <v>107.6938274481595</v>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" t="n">
-        <v>107.6911173810479</v>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" t="n">
-        <v>107.6886852981185</v>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" t="n">
-        <v>107.6865007658698</v>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" t="n">
-        <v>107.6845369533987</v>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" t="n">
-        <v>107.6827701655126</v>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" t="n">
-        <v>107.6811794427834</v>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" t="n">
-        <v>107.6797462178534</v>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" t="n">
-        <v>107.6784540192076</v>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" t="n">
-        <v>107.6772882151514</v>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" t="n">
-        <v>107.6762357919674</v>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" t="n">
-        <v>107.6752851612278</v>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" t="n">
-        <v>107.6744259920517</v>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" t="n">
-        <v>107.6736490647716</v>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" t="n">
-        <v>107.6729461430226</v>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" t="n">
-        <v>107.6723098617262</v>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" t="n">
-        <v>107.6717336288214</v>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" t="n">
-        <v>107.6712115389111</v>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" t="n">
-        <v>107.6707382972616</v>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" t="n">
-        <v>107.670309152812</v>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" t="n">
-        <v>107.6699198390423</v>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" t="n">
-        <v>107.669566521708</v>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" t="n">
-        <v>107.6692457525841</v>
-      </c>
-    </row>
-    <row r="209">
-      <c r="A209" t="n">
-        <v>107.668954428477</v>
-      </c>
-    </row>
-    <row r="210">
-      <c r="A210" t="n">
-        <v>107.6686897548619</v>
-      </c>
-    </row>
-    <row r="211">
-      <c r="A211" t="n">
-        <v>107.6684492135877</v>
-      </c>
-    </row>
-    <row r="212">
-      <c r="A212" t="n">
-        <v>107.6682305341622</v>
-      </c>
-    </row>
-    <row r="213">
-      <c r="A213" t="n">
-        <v>107.6680316681964</v>
-      </c>
-    </row>
-    <row r="214">
-      <c r="A214" t="n">
-        <v>107.6678507666355</v>
-      </c>
-    </row>
-    <row r="215">
-      <c r="A215" t="n">
-        <v>107.6676861594551</v>
-      </c>
-    </row>
-    <row r="216">
-      <c r="A216" t="n">
-        <v>107.6675363375375</v>
-      </c>
-    </row>
-    <row r="217">
-      <c r="A217" t="n">
-        <v>107.6673999364813</v>
-      </c>
-    </row>
-    <row r="218">
-      <c r="A218" t="n">
-        <v>107.6672757221242</v>
-      </c>
-    </row>
-    <row r="219">
-      <c r="A219" t="n">
-        <v>107.6671625775881</v>
-      </c>
-    </row>
-    <row r="220">
-      <c r="A220" t="n">
-        <v>107.6670594916771</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
